--- a/Unihan&国家标准统计.xlsx
+++ b/Unihan&国家标准统计.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="11600" activeTab="1"/>
+    <workbookView windowHeight="16960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Unihan数据库内容" sheetId="1" r:id="rId1"/>
     <sheet name="Unihan数据库范围" sheetId="2" r:id="rId2"/>
     <sheet name="国家标准范围" sheetId="3" r:id="rId3"/>
+    <sheet name="中文域名" sheetId="4" r:id="rId4"/>
+    <sheet name="Unicode字集" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Unihan数据库内容!#REF!</definedName>
@@ -19,7 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="276">
+  <si>
+    <t>Unihan数据查询</t>
+  </si>
+  <si>
+    <t>https://www.unicode.org/cgi-bin/GetUnihanData.pl</t>
+  </si>
   <si>
     <t>99个Properties</t>
   </si>
@@ -736,6 +744,111 @@
   </si>
   <si>
     <t>到扩展F</t>
+  </si>
+  <si>
+    <t>互联网名称与数字地址分配机构</t>
+  </si>
+  <si>
+    <t>ICANN</t>
+  </si>
+  <si>
+    <t>https://www.icann.org/</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>Internationalized Domain Names</t>
+  </si>
+  <si>
+    <t>https://www.icann.org/resources/pages/idn-2012-02-25-en</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>Maximal Starting Repertoire</t>
+  </si>
+  <si>
+    <t>https://www.icann.org/resources/pages/msr-2015-06-21-en</t>
+  </si>
+  <si>
+    <t>最新的是202107发布的MSR-5</t>
+  </si>
+  <si>
+    <t>https://www.icann.org/en/announcements/details/maximal-starting-repertoire-version-5-msr-5-released-7-7-2021-en</t>
+  </si>
+  <si>
+    <t>DotAsia</t>
+  </si>
+  <si>
+    <t>http://www.idn.asia/main/2012/02/asia-zh-idn-language-table---updated-v12.html</t>
+  </si>
+  <si>
+    <t>https://www.dot.asia/dotasia-organisation/policy-development/</t>
+  </si>
+  <si>
+    <t>https://www.dot.asia/policies/DotAsia-CJK-IDN-Policies-COMPLETE--2011-05-04.pdf</t>
+  </si>
+  <si>
+    <t>总共收录19720个字符，包括：</t>
+  </si>
+  <si>
+    <t>37个英文字符</t>
+  </si>
+  <si>
+    <t>19683个汉字字符，其中简体汉字(SC)去重后，实际为15440字符。</t>
+  </si>
+  <si>
+    <t>中文域名用字的量化分析</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/349306995</t>
+  </si>
+  <si>
+    <t>https://www.xinnet.com/knowledge/2142345838.html</t>
+  </si>
+  <si>
+    <t>国际化域名</t>
+  </si>
+  <si>
+    <t>国际化国家及地区顶级域</t>
+  </si>
+  <si>
+    <t>IDN ccTLD或ccIDN</t>
+  </si>
+  <si>
+    <t>供国家或地区的国际化顶级域。这些顶级域以Punycode编码，透过客户端的应用程序，如网页浏览器，编码可被转换成以Unicode编码的地方语言，如中文字符。</t>
+  </si>
+  <si>
+    <t>2010年6月25日，ICANN宣布了五个中文IDN ccTLD：</t>
+  </si>
+  <si>
+    <t>  .中国(编码 ".xn--fiqs8s") 及.中国(编码 ".xn--fiqz9s")，由CNNIC管理；</t>
+  </si>
+  <si>
+    <t>  .香港(编码 ".xn--j6w193g")，由HKIRC管理；</t>
+  </si>
+  <si>
+    <t>  .台湾(编码 ".xn--kprw13d") 及.台湾(编码 ".xn--kpry57d")，由TWNIC管理。</t>
+  </si>
+  <si>
+    <t>Punycode编码</t>
+  </si>
+  <si>
+    <t>https://docs.fuyeor.com/answer/8717.html</t>
+  </si>
+  <si>
+    <t>Unihan核心汉字-kUnihanCore2020</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/455099759</t>
+  </si>
+  <si>
+    <t>iicore</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/443109686</t>
   </si>
 </sst>
 </file>
@@ -745,10 +858,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,8 +870,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,6 +899,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -788,7 +932,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,14 +953,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -827,36 +963,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,11 +977,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -886,9 +992,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,6 +1001,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,7 +1030,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +1132,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,13 +1162,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,103 +1198,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,31 +1210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,15 +1227,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1126,7 +1237,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,21 +1288,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,27 +1308,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,153 +1326,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1677,10 +1803,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1695,731 +1821,726 @@
     <col min="14" max="14" width="29.6153846153846" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="7:14">
-      <c r="G2">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="7:14">
+      <c r="G5">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="I5">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="K5">
         <v>29</v>
       </c>
-      <c r="L2">
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="M5">
         <v>13</v>
       </c>
-      <c r="N2">
+      <c r="N5">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
+      <c r="N11" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
+      <c r="H12" t="s">
         <v>56</v>
       </c>
-      <c r="M9" t="s">
+      <c r="I12" t="s">
         <v>57</v>
       </c>
-      <c r="N9" t="s">
+      <c r="K12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="M12" t="s">
         <v>59</v>
       </c>
-      <c r="G10" t="s">
+      <c r="N12" t="s">
         <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" t="s">
         <v>90</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M18" t="s">
         <v>91</v>
       </c>
-      <c r="K16" t="s">
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
         <v>92</v>
       </c>
-      <c r="M16" t="s">
+      <c r="I19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="K19" t="s">
         <v>94</v>
       </c>
-      <c r="I17" t="s">
+      <c r="M19" t="s">
         <v>95</v>
-      </c>
-      <c r="K17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>97</v>
       </c>
       <c r="K20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="I21" t="s">
+        <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
       </c>
       <c r="K23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
       </c>
       <c r="K25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="K34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>45</v>
+      </c>
+      <c r="K35" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -2429,122 +2550,122 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -2554,22 +2675,37 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +2719,7 @@
   <sheetPr/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
@@ -2602,61 +2738,61 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>20992</v>
@@ -2665,47 +2801,47 @@
         <v>20992</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I5">
         <v>20902</v>
       </c>
       <c r="J5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I6">
         <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>6592</v>
@@ -2714,47 +2850,47 @@
         <v>6592</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I7">
         <v>6582</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="3:11">
       <c r="C8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E9">
         <v>42720</v>
@@ -2763,47 +2899,47 @@
         <v>42720</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I9">
         <v>42711</v>
       </c>
       <c r="J9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="3:11">
       <c r="C10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E11">
         <v>4160</v>
@@ -2812,47 +2948,47 @@
         <v>4154</v>
       </c>
       <c r="H11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I11">
         <v>4149</v>
       </c>
       <c r="J11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="3:11">
       <c r="C12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I12">
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E13">
         <v>224</v>
@@ -2861,30 +2997,30 @@
         <v>222</v>
       </c>
       <c r="H13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I13">
         <v>222</v>
       </c>
       <c r="J13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E14">
         <v>5776</v>
@@ -2893,30 +3029,30 @@
         <v>5762</v>
       </c>
       <c r="H14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I14">
         <v>5762</v>
       </c>
       <c r="J14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E15">
         <v>7488</v>
@@ -2925,30 +3061,30 @@
         <v>7473</v>
       </c>
       <c r="H15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I15">
         <v>7473</v>
       </c>
       <c r="J15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E16">
         <v>4944</v>
@@ -2957,30 +3093,30 @@
         <v>4939</v>
       </c>
       <c r="H16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I16">
         <v>4939</v>
       </c>
       <c r="J16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E17">
         <v>4192</v>
@@ -2989,30 +3125,30 @@
         <v>4192</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I17">
         <v>4192</v>
       </c>
       <c r="J17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E18">
         <v>512</v>
@@ -3021,30 +3157,30 @@
         <v>472</v>
       </c>
       <c r="H18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I18">
         <v>472</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E19">
         <v>544</v>
@@ -3053,117 +3189,117 @@
         <v>542</v>
       </c>
       <c r="H19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I19">
         <v>542</v>
       </c>
       <c r="J19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="8:11">
       <c r="H20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I20">
         <v>4952</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I21">
         <v>214</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="8:11">
       <c r="H22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I22">
         <v>115</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="8:11">
       <c r="H23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I23">
         <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="8:11">
       <c r="H24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I24">
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="8:11">
       <c r="H25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I25">
         <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="8:11">
       <c r="H26" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I26">
         <v>30</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3191,318 +3327,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="9:9">
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>98060</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B6">
         <v>6763</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B7">
         <v>21003</v>
       </c>
       <c r="C7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B8">
         <v>27533</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I8">
         <v>20902</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B9">
         <v>70244</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I9">
         <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B10">
         <v>87887</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I10">
         <v>6582</v>
       </c>
       <c r="J10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="8:10">
       <c r="H11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="8:10">
       <c r="H12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I12">
         <v>42711</v>
       </c>
       <c r="J12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="8:10">
       <c r="H13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I13">
         <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="8:10">
       <c r="H14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I14">
         <v>4149</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="8:10">
       <c r="H15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I15">
         <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="8:10">
       <c r="H16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I16">
         <v>222</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="8:10">
       <c r="H17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I17">
         <v>5762</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="8:10">
       <c r="H18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I18">
         <v>7473</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="8:10">
       <c r="H19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I19">
         <v>4939</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="8:10">
       <c r="H20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I20">
         <v>4192</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="8:10">
       <c r="H21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I21">
         <v>472</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="8:10">
       <c r="H22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I22">
         <v>542</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="8:10">
       <c r="H23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I23">
         <v>4952</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="8:10">
       <c r="H24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I24">
         <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="8:10">
       <c r="H25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I25">
         <v>115</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="8:10">
       <c r="H26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I26">
         <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="8:10">
       <c r="H27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I27">
         <v>12</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="8:10">
       <c r="H28" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I28">
         <v>43</v>
       </c>
       <c r="J28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="8:10">
       <c r="H29" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I29">
         <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3513,4 +3649,226 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:I49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="16384" width="9.23076923076923" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.icann.org/" tooltip="https://www.icann.org/"/>
+    <hyperlink ref="B12" r:id="rId2" display="https://www.icann.org/en/announcements/details/maximal-starting-repertoire-version-5-msr-5-released-7-7-2021-en" tooltip="https://www.icann.org/en/announcements/details/maximal-starting-repertoire-version-5-msr-5-released-7-7-2021-en"/>
+    <hyperlink ref="B24" r:id="rId3" display="https://www.dot.asia/policies/DotAsia-CJK-IDN-Policies-COMPLETE--2011-05-04.pdf" tooltip="https://www.dot.asia/policies/DotAsia-CJK-IDN-Policies-COMPLETE--2011-05-04.pdf"/>
+    <hyperlink ref="B23" r:id="rId4" display="https://www.dot.asia/dotasia-organisation/policy-development/" tooltip="https://www.dot.asia/dotasia-organisation/policy-development/"/>
+    <hyperlink ref="B34" r:id="rId5" display="https://zhuanlan.zhihu.com/p/349306995" tooltip="https://zhuanlan.zhihu.com/p/349306995"/>
+    <hyperlink ref="B49" r:id="rId6" display="https://docs.fuyeor.com/answer/8717.html" tooltip="https://docs.fuyeor.com/answer/8717.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="9.23076923076923" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://zhuanlan.zhihu.com/p/455099759" tooltip="https://zhuanlan.zhihu.com/p/455099759"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://www.zhihu.com/question/443109686" tooltip="https://www.zhihu.com/question/443109686"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>